--- a/config.xlsx
+++ b/config.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$65</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$67</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="111">
   <si>
     <t>name</t>
   </si>
@@ -269,6 +269,12 @@
     <t>icon\ji-su-chong-feng.png</t>
   </si>
   <si>
+    <t>温压冲击</t>
+  </si>
+  <si>
+    <t>增加温压弹冲击伤害和爆炸击退</t>
+  </si>
+  <si>
     <t>icon\wen-ya-chong-ji.png</t>
   </si>
   <si>
@@ -335,7 +341,28 @@
     <t>icon\button\tiaozhan.png</t>
   </si>
   <si>
+    <t>选择技能</t>
+  </si>
+  <si>
     <t>icon\button\xuan-ze-ji-neng.png</t>
+  </si>
+  <si>
+    <t>电极柱</t>
+  </si>
+  <si>
+    <t>获得电极柱</t>
+  </si>
+  <si>
+    <t>icon\dian-ji-zhu.png</t>
+  </si>
+  <si>
+    <t>跃迁电子</t>
+  </si>
+  <si>
+    <t>学习跃迁电子</t>
+  </si>
+  <si>
+    <t>icon\yue-qian-dain-zi.png</t>
   </si>
 </sst>
 </file>
@@ -1322,18 +1349,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:F65"/>
+  <dimension ref="A1:F67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A30" sqref="A30"/>
+      <selection pane="bottomLeft" activeCell="J71" sqref="J71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="10.875" customWidth="1"/>
-    <col min="2" max="2" width="21.25" customWidth="1"/>
+    <col min="2" max="2" width="29.625" customWidth="1"/>
     <col min="4" max="4" width="37.125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1377,7 +1404,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" hidden="1" spans="1:6">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -1417,7 +1444,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" hidden="1" spans="1:6">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1537,7 +1564,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" hidden="1" spans="1:6">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -1817,7 +1844,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" hidden="1" spans="1:6">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -1897,7 +1924,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" hidden="1" spans="1:6">
       <c r="A29" t="s">
         <v>22</v>
       </c>
@@ -1917,7 +1944,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" hidden="1" spans="1:6">
       <c r="A30" t="s">
         <v>51</v>
       </c>
@@ -2057,7 +2084,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" hidden="1" spans="1:6">
       <c r="A37" t="s">
         <v>22</v>
       </c>
@@ -2217,7 +2244,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" hidden="1" spans="1:6">
       <c r="A45" t="s">
         <v>22</v>
       </c>
@@ -2297,7 +2324,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" hidden="1" spans="1:6">
       <c r="A49" t="s">
         <v>22</v>
       </c>
@@ -2379,16 +2406,16 @@
     </row>
     <row r="53" hidden="1" spans="1:6">
       <c r="A53" t="s">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>80</v>
       </c>
       <c r="C53" t="s">
         <v>8</v>
       </c>
       <c r="D53" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -2399,16 +2426,16 @@
     </row>
     <row r="54" hidden="1" spans="1:6">
       <c r="A54" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B54" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C54" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D54" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E54">
         <v>10</v>
@@ -2419,16 +2446,16 @@
     </row>
     <row r="55" hidden="1" spans="1:6">
       <c r="A55" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B55" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C55" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D55" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -2439,16 +2466,16 @@
     </row>
     <row r="56" hidden="1" spans="1:6">
       <c r="A56" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B56" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C56" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D56" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -2457,38 +2484,38 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="57" hidden="1" spans="1:6">
+    <row r="57" spans="1:6">
       <c r="A57" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B57" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C57" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D57" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E57">
         <v>1</v>
       </c>
       <c r="F57">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="58" hidden="1" spans="1:6">
       <c r="A58" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B58" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C58" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D58" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -2499,16 +2526,16 @@
     </row>
     <row r="59" hidden="1" spans="1:6">
       <c r="A59" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B59" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C59" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D59" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E59">
         <v>1</v>
@@ -2519,16 +2546,16 @@
     </row>
     <row r="60" hidden="1" spans="1:6">
       <c r="A60" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B60" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C60" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D60" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E60">
         <v>1</v>
@@ -2539,16 +2566,16 @@
     </row>
     <row r="61" hidden="1" spans="1:6">
       <c r="A61" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B61" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C61" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D61" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -2559,16 +2586,16 @@
     </row>
     <row r="62" hidden="1" spans="1:6">
       <c r="A62" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B62" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C62" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D62" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -2579,16 +2606,16 @@
     </row>
     <row r="63" hidden="1" spans="1:6">
       <c r="A63" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B63" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C63" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D63" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -2599,16 +2626,16 @@
     </row>
     <row r="64" hidden="1" spans="1:6">
       <c r="A64" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B64" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C64" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D64" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E64">
         <v>1</v>
@@ -2619,37 +2646,69 @@
     </row>
     <row r="65" hidden="1" spans="1:6">
       <c r="A65" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="B65" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C65" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="D65" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="66" hidden="1" spans="1:6">
+      <c r="A66" t="s">
+        <v>105</v>
+      </c>
+      <c r="B66" t="s">
+        <v>106</v>
+      </c>
+      <c r="C66" t="s">
+        <v>105</v>
+      </c>
+      <c r="D66" t="s">
+        <v>107</v>
+      </c>
+      <c r="E66">
         <v>1</v>
       </c>
-      <c r="F65">
+      <c r="F66">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="67" hidden="1" spans="1:6">
+      <c r="A67" t="s">
+        <v>108</v>
+      </c>
+      <c r="B67" t="s">
+        <v>109</v>
+      </c>
+      <c r="C67" t="s">
+        <v>108</v>
+      </c>
+      <c r="D67" t="s">
+        <v>110</v>
+      </c>
+      <c r="E67">
+        <v>10</v>
+      </c>
+      <c r="F67">
         <v>0.9</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:F65" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:F67" etc:filterBottomFollowUsedRange="0">
     <filterColumn colId="3">
       <filters>
-        <filter val="icon\quan-zi-dan-zeng-fu.png"/>
-        <filter val="icon\bao-zha-zeng-shang.png"/>
-        <filter val="icon\shanghaizengfu.png"/>
-        <filter val="icon\ci-ji-zi-dan-zeng-shang.png"/>
-        <filter val="icon\zengshangzhuangzhi.png"/>
-        <filter val="icon\gan-bing-dan-zeng-shang.png"/>
-        <filter val="icon\bing-bao-zeng-shang.png"/>
-        <filter val="icon\xuan-wo-zeng-ya.png"/>
-        <filter val="icon\zeng-shang-li-ren.png"/>
+        <filter val="icon\button\0-2queding.png"/>
       </filters>
     </filterColumn>
     <extLst/>

--- a/config.xlsx
+++ b/config.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="112">
   <si>
     <t>name</t>
   </si>
@@ -204,6 +204,9 @@
   </si>
   <si>
     <t>icon\zhongxingtanke.png</t>
+  </si>
+  <si>
+    <t>子弹爆炸</t>
   </si>
   <si>
     <t>icon\zidanbaozha.png</t>
@@ -375,7 +378,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -386,6 +389,13 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -853,148 +863,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1352,16 +1362,12 @@
   <dimension ref="A1:F67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="J71" sqref="J71"/>
+      <selection activeCell="D77" sqref="D77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="10.875" customWidth="1"/>
-    <col min="2" max="2" width="29.625" customWidth="1"/>
-    <col min="4" max="4" width="37.125" customWidth="1"/>
+    <col min="4" max="4" width="30.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1544,7 +1550,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="10" hidden="1" spans="1:6">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -1864,7 +1870,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="26" hidden="1" spans="1:6">
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>22</v>
       </c>
@@ -2026,7 +2032,7 @@
     </row>
     <row r="34" hidden="1" spans="1:6">
       <c r="A34" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="B34" t="s">
         <v>7</v>
@@ -2035,7 +2041,7 @@
         <v>11</v>
       </c>
       <c r="D34" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E34">
         <v>5</v>
@@ -2055,7 +2061,7 @@
         <v>11</v>
       </c>
       <c r="D35" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E35">
         <v>5</v>
@@ -2075,7 +2081,7 @@
         <v>26</v>
       </c>
       <c r="D36" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E36">
         <v>2</v>
@@ -2095,7 +2101,7 @@
         <v>11</v>
       </c>
       <c r="D37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E37">
         <v>2</v>
@@ -2115,7 +2121,7 @@
         <v>11</v>
       </c>
       <c r="D38" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E38">
         <v>10</v>
@@ -2132,10 +2138,10 @@
         <v>7</v>
       </c>
       <c r="C39" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D39" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -2155,7 +2161,7 @@
         <v>11</v>
       </c>
       <c r="D40" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E40">
         <v>2</v>
@@ -2175,7 +2181,7 @@
         <v>24</v>
       </c>
       <c r="D41" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E41">
         <v>5</v>
@@ -2195,7 +2201,7 @@
         <v>11</v>
       </c>
       <c r="D42" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E42">
         <v>10</v>
@@ -2215,7 +2221,7 @@
         <v>11</v>
       </c>
       <c r="D43" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E43">
         <v>2</v>
@@ -2232,10 +2238,10 @@
         <v>7</v>
       </c>
       <c r="C44" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D44" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E44">
         <v>10</v>
@@ -2255,7 +2261,7 @@
         <v>11</v>
       </c>
       <c r="D45" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E45">
         <v>10</v>
@@ -2275,7 +2281,7 @@
         <v>8</v>
       </c>
       <c r="D46" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E46">
         <v>5</v>
@@ -2295,7 +2301,7 @@
         <v>34</v>
       </c>
       <c r="D47" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -2312,10 +2318,10 @@
         <v>7</v>
       </c>
       <c r="C48" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D48" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E48">
         <v>10</v>
@@ -2332,10 +2338,10 @@
         <v>7</v>
       </c>
       <c r="C49" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D49" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E49">
         <v>5</v>
@@ -2355,7 +2361,7 @@
         <v>11</v>
       </c>
       <c r="D50" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E50">
         <v>10</v>
@@ -2375,7 +2381,7 @@
         <v>11</v>
       </c>
       <c r="D51" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E51">
         <v>5</v>
@@ -2395,7 +2401,7 @@
         <v>34</v>
       </c>
       <c r="D52" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -2404,18 +2410,18 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="53" hidden="1" spans="1:6">
+    <row r="53" spans="1:6">
       <c r="A53" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B53" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C53" t="s">
         <v>8</v>
       </c>
       <c r="D53" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -2426,16 +2432,16 @@
     </row>
     <row r="54" hidden="1" spans="1:6">
       <c r="A54" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B54" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C54" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D54" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E54">
         <v>10</v>
@@ -2446,16 +2452,16 @@
     </row>
     <row r="55" hidden="1" spans="1:6">
       <c r="A55" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B55" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C55" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D55" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -2466,16 +2472,16 @@
     </row>
     <row r="56" hidden="1" spans="1:6">
       <c r="A56" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B56" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C56" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D56" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -2484,38 +2490,38 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" hidden="1" spans="1:6">
       <c r="A57" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B57" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C57" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D57" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E57">
         <v>1</v>
       </c>
       <c r="F57">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="58" hidden="1" spans="1:6">
       <c r="A58" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B58" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C58" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D58" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -2526,16 +2532,16 @@
     </row>
     <row r="59" hidden="1" spans="1:6">
       <c r="A59" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B59" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C59" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D59" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E59">
         <v>1</v>
@@ -2546,16 +2552,16 @@
     </row>
     <row r="60" hidden="1" spans="1:6">
       <c r="A60" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B60" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C60" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D60" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E60">
         <v>1</v>
@@ -2566,16 +2572,16 @@
     </row>
     <row r="61" hidden="1" spans="1:6">
       <c r="A61" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B61" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C61" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D61" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -2586,16 +2592,16 @@
     </row>
     <row r="62" hidden="1" spans="1:6">
       <c r="A62" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B62" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C62" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D62" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -2606,16 +2612,16 @@
     </row>
     <row r="63" hidden="1" spans="1:6">
       <c r="A63" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B63" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C63" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D63" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -2626,56 +2632,56 @@
     </row>
     <row r="64" hidden="1" spans="1:6">
       <c r="A64" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B64" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C64" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D64" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F64">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="65" hidden="1" spans="1:6">
       <c r="A65" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B65" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C65" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D65" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E65">
         <v>0</v>
       </c>
       <c r="F65">
-        <v>0.75</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="66" hidden="1" spans="1:6">
       <c r="A66" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B66" t="s">
+        <v>107</v>
+      </c>
+      <c r="C66" t="s">
         <v>106</v>
       </c>
-      <c r="C66" t="s">
-        <v>105</v>
-      </c>
       <c r="D66" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E66">
         <v>1</v>
@@ -2686,16 +2692,16 @@
     </row>
     <row r="67" hidden="1" spans="1:6">
       <c r="A67" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B67" t="s">
+        <v>110</v>
+      </c>
+      <c r="C67" t="s">
         <v>109</v>
       </c>
-      <c r="C67" t="s">
-        <v>108</v>
-      </c>
       <c r="D67" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E67">
         <v>10</v>
@@ -2708,7 +2714,9 @@
   <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:F67" etc:filterBottomFollowUsedRange="0">
     <filterColumn colId="3">
       <filters>
-        <filter val="icon\button\0-2queding.png"/>
+        <filter val="icon\di-wen-chuan-tou.png"/>
+        <filter val="icon\wenyadanlianfa.png"/>
+        <filter val="icon\wen-ya-chong-ji.png"/>
       </filters>
     </filterColumn>
     <extLst/>

--- a/config.xlsx
+++ b/config.xlsx
@@ -9,9 +9,6 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$67</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -30,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="171">
   <si>
     <t>name</t>
   </si>
@@ -98,60 +95,96 @@
     <t>icon\bingbaofashengqi.png</t>
   </si>
   <si>
-    <t>技能</t>
+    <t>冰霜爆炸</t>
   </si>
   <si>
     <t>icon\bingshuangbaozha.png</t>
   </si>
   <si>
+    <t>长效蓄能</t>
+  </si>
+  <si>
     <t>无人机</t>
   </si>
   <si>
     <t>icon\chang-xiao-xu-neng.png</t>
   </si>
   <si>
+    <t>低温穿透</t>
+  </si>
+  <si>
     <t>干冰弹</t>
   </si>
   <si>
     <t>icon\di-wen-chuan-tou.png</t>
   </si>
   <si>
+    <t>干冰弹增伤</t>
+  </si>
+  <si>
     <t>icon\gan-bing-dan-zeng-shang.png</t>
   </si>
   <si>
     <t>icon\ganbingdan.png</t>
   </si>
   <si>
+    <t>干冰弹连发</t>
+  </si>
+  <si>
     <t>icon\ganbingdanlianfa.png</t>
   </si>
   <si>
+    <t>干冰弹齐射</t>
+  </si>
+  <si>
     <t>icon\ganbingdanqishe.png</t>
   </si>
   <si>
+    <t>高能射线</t>
+  </si>
+  <si>
     <t>射线</t>
   </si>
   <si>
     <t>icon\gao-nen-she-xian.png</t>
   </si>
   <si>
+    <t>焦土政策</t>
+  </si>
+  <si>
     <t>车</t>
   </si>
   <si>
     <t>icon\jiao-tu-zheng-ce.png</t>
   </si>
   <si>
+    <t>急冻寒冰</t>
+  </si>
+  <si>
     <t>icon\jidonghanbing.png</t>
   </si>
   <si>
+    <t>急速冲锋</t>
+  </si>
+  <si>
     <t>icon\jisuchongfeng.png</t>
   </si>
   <si>
+    <t>连发</t>
+  </si>
+  <si>
     <t>icon\lian-fa.png</t>
   </si>
   <si>
+    <t>连续出击</t>
+  </si>
+  <si>
     <t>icon\lian-xu-chu-ji.png</t>
   </si>
   <si>
+    <t>齐射</t>
+  </si>
+  <si>
     <t>icon\qi-she.png</t>
   </si>
   <si>
@@ -161,27 +194,48 @@
     <t>icon\ranyoudan.png</t>
   </si>
   <si>
+    <t>热能爆发</t>
+  </si>
+  <si>
     <t>icon\re-neng-bao-fa.png</t>
   </si>
   <si>
+    <t>散射小冰弹</t>
+  </si>
+  <si>
     <t>icon\sanshexiaobingdan.png</t>
   </si>
   <si>
+    <t>伤害增幅</t>
+  </si>
+  <si>
     <t>icon\shanghaizengfu.png</t>
   </si>
   <si>
+    <t>温压弹连发</t>
+  </si>
+  <si>
     <t>icon\wenyadanlianfa.png</t>
   </si>
   <si>
+    <t>无人机冲击</t>
+  </si>
+  <si>
     <t>icon\wu-ren-ji-chong-ji.png</t>
   </si>
   <si>
+    <t>压缩气刃</t>
+  </si>
+  <si>
     <t>风刃</t>
   </si>
   <si>
     <t>icon\ya-suo-qi-ren.png</t>
   </si>
   <si>
+    <t>增伤利刃</t>
+  </si>
+  <si>
     <t>icon\zeng-shang-li-ren.png</t>
   </si>
   <si>
@@ -200,9 +254,15 @@
     <t>icon\zhicannianya.png</t>
   </si>
   <si>
+    <t>重冰穿透</t>
+  </si>
+  <si>
     <t>icon\zhong-bing-chuan-tou.png</t>
   </si>
   <si>
+    <t>重型坦克</t>
+  </si>
+  <si>
     <t>icon\zhongxingtanke.png</t>
   </si>
   <si>
@@ -212,60 +272,111 @@
     <t>icon\zidanbaozha.png</t>
   </si>
   <si>
+    <t>子弹穿透</t>
+  </si>
+  <si>
     <t>icon\zidanchuantou.png</t>
   </si>
   <si>
+    <t>冰冻侵袭</t>
+  </si>
+  <si>
     <t>icon\bing-dong-qing-xi.png</t>
   </si>
   <si>
+    <t>次级子弹增伤</t>
+  </si>
+  <si>
     <t>icon\ci-ji-zi-dan-zeng-shang.png</t>
   </si>
   <si>
+    <t>分裂子弹四射</t>
+  </si>
+  <si>
     <t>icon\fen-lie-zi-dan-si-she.png</t>
   </si>
   <si>
+    <t>风力加强</t>
+  </si>
+  <si>
     <t>风</t>
   </si>
   <si>
     <t>icon\feng-li-jia-qiang.png</t>
   </si>
   <si>
+    <t>分裂子弹爆炸</t>
+  </si>
+  <si>
     <t>icon\feng-lie-zi-dan-bao-zha.png</t>
   </si>
   <si>
+    <t>高速飞行</t>
+  </si>
+  <si>
     <t>icon\gao-su-fei-xing.png</t>
   </si>
   <si>
+    <t>急冻子弹</t>
+  </si>
+  <si>
     <t>icon\ji-dong-zi-dan.png</t>
   </si>
   <si>
+    <t>急速射击</t>
+  </si>
+  <si>
     <t>icon\ji-su-she-ji.png</t>
   </si>
   <si>
+    <t>空投轰炸</t>
+  </si>
+  <si>
     <t>空投</t>
   </si>
   <si>
     <t>icon\kong-tou-hong-zha.png</t>
   </si>
   <si>
+    <t>全子弹增幅</t>
+  </si>
+  <si>
     <t>icon\quan-zi-dan-zeng-fu.png</t>
   </si>
   <si>
-    <t>icon\ren-neng-ying-ran.png</t>
+    <t>热能引燃</t>
+  </si>
+  <si>
+    <t>icon\re-neng-ying-ran.png</t>
+  </si>
+  <si>
+    <t>势不可挡</t>
   </si>
   <si>
     <t>icon\shi-bu-ke-dang.png</t>
   </si>
   <si>
+    <t>旋风加农</t>
+  </si>
+  <si>
     <t>icon\xuan-feng-jia-nong.png</t>
   </si>
   <si>
+    <t>漩涡增压</t>
+  </si>
+  <si>
     <t>icon\xuan-wo-zeng-ya.png</t>
   </si>
   <si>
+    <t>子弹分裂</t>
+  </si>
+  <si>
     <t>icon\zi-dan-feng-lie.png</t>
   </si>
   <si>
+    <t>子弹弹射</t>
+  </si>
+  <si>
     <t>icon\zi-dan-tan-she.png</t>
   </si>
   <si>
@@ -293,30 +404,45 @@
     <t>icon\dian-ci-chuan-ci.png</t>
   </si>
   <si>
-    <t>技能名称</t>
-  </si>
-  <si>
-    <t>默认</t>
+    <t>电磁分流</t>
   </si>
   <si>
     <t>icon\dian-ci-feng-liu.png</t>
   </si>
   <si>
+    <t>火势扩散</t>
+  </si>
+  <si>
+    <t>范围+100%</t>
+  </si>
+  <si>
     <t>icon\huo-shi-kuo-san.png</t>
   </si>
   <si>
     <t>0-2确认</t>
   </si>
   <si>
+    <t>按钮</t>
+  </si>
+  <si>
     <t>icon\button\0-2queding.png</t>
   </si>
   <si>
+    <t>2-2确认</t>
+  </si>
+  <si>
     <t>icon\button\2-2queding.png</t>
   </si>
   <si>
+    <t>点击空白处关闭</t>
+  </si>
+  <si>
     <t>icon\button\dianjikongbai.png</t>
   </si>
   <si>
+    <t>返回</t>
+  </si>
+  <si>
     <t>icon\button\fan-hui-ye-mian.png</t>
   </si>
   <si>
@@ -326,9 +452,15 @@
     <t>icon\button\kai-shi-you-xi.png</t>
   </si>
   <si>
+    <t>入场词条</t>
+  </si>
+  <si>
     <t>icon\button\ru-chang-ci-tiao.png</t>
   </si>
   <si>
+    <t>刷新</t>
+  </si>
+  <si>
     <t>icon\button\shuaxin.png</t>
   </si>
   <si>
@@ -338,9 +470,6 @@
     <t>挑战按钮，用于元素塔</t>
   </si>
   <si>
-    <t>按钮</t>
-  </si>
-  <si>
     <t>icon\button\tiaozhan.png</t>
   </si>
   <si>
@@ -366,6 +495,51 @@
   </si>
   <si>
     <t>icon\yue-qian-dain-zi.png</t>
+  </si>
+  <si>
+    <t>火焰子弹</t>
+  </si>
+  <si>
+    <t>子弹</t>
+  </si>
+  <si>
+    <t>icon\huo-yan-zi-dan.png</t>
+  </si>
+  <si>
+    <t>猛烈震荡</t>
+  </si>
+  <si>
+    <t>无人机晕眩2秒</t>
+  </si>
+  <si>
+    <t>icon\meng-lie-zhen-dang.png</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0.9</t>
+  </si>
+  <si>
+    <t>烈焰无人机</t>
+  </si>
+  <si>
+    <t>无人机点燃3秒</t>
+  </si>
+  <si>
+    <t>icon\lie-yan-wu-ren-ji.png</t>
+  </si>
+  <si>
+    <t>热能爆炸</t>
+  </si>
+  <si>
+    <t>温压弹爆炸伤害+80%</t>
+  </si>
+  <si>
+    <t>icon\wen-ya-bao-zha.png</t>
+  </si>
+  <si>
+    <t>5</t>
   </si>
 </sst>
 </file>
@@ -1358,17 +1532,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:F67"/>
+  <sheetPr/>
+  <dimension ref="A1:F71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D77" sqref="D77"/>
+      <selection activeCell="T23" sqref="T23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
-  <cols>
-    <col min="4" max="4" width="30.875" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
@@ -1390,7 +1561,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" hidden="1" spans="1:6">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1410,7 +1581,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="3" hidden="1" spans="1:6">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -1430,7 +1601,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="4" hidden="1" spans="1:6">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -1450,7 +1621,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="5" hidden="1" spans="1:6">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1470,7 +1641,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="6" hidden="1" spans="1:6">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -1490,7 +1661,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="7" hidden="1" spans="1:6">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -1510,7 +1681,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="8" hidden="1" spans="1:6">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -1530,18 +1701,18 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="9" hidden="1" spans="1:6">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9">
         <v>5</v>
@@ -1552,16 +1723,16 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B10" t="s">
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E10">
         <v>5</v>
@@ -1570,18 +1741,18 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="11" hidden="1" spans="1:6">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s">
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E11">
         <v>5</v>
@@ -1590,18 +1761,18 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="12" hidden="1" spans="1:6">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
         <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D12" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E12">
         <v>10</v>
@@ -1610,18 +1781,18 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="13" hidden="1" spans="1:6">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="B13" t="s">
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D13" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E13">
         <v>10</v>
@@ -1630,18 +1801,18 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="14" hidden="1" spans="1:6">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="B14" t="s">
         <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D14" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E14">
         <v>10</v>
@@ -1650,18 +1821,18 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="15" hidden="1" spans="1:6">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="B15" t="s">
         <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D15" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E15">
         <v>10</v>
@@ -1670,18 +1841,18 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="16" hidden="1" spans="1:6">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="B16" t="s">
         <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D16" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E16">
         <v>10</v>
@@ -1690,18 +1861,18 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="17" hidden="1" spans="1:6">
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B17" t="s">
         <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D17" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="E17">
         <v>5</v>
@@ -1710,18 +1881,18 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="18" hidden="1" spans="1:6">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="B18" t="s">
         <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D18" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1730,9 +1901,9 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="19" hidden="1" spans="1:6">
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="B19" t="s">
         <v>7</v>
@@ -1741,7 +1912,7 @@
         <v>11</v>
       </c>
       <c r="D19" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="E19">
         <v>10</v>
@@ -1750,18 +1921,18 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="20" hidden="1" spans="1:6">
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="B20" t="s">
         <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D20" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E20">
         <v>5</v>
@@ -1770,9 +1941,9 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="21" hidden="1" spans="1:6">
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="B21" t="s">
         <v>7</v>
@@ -1781,7 +1952,7 @@
         <v>11</v>
       </c>
       <c r="D21" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="E21">
         <v>5</v>
@@ -1790,18 +1961,18 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="22" hidden="1" spans="1:6">
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="B22" t="s">
         <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="D22" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="E22">
         <v>10</v>
@@ -1810,9 +1981,9 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="23" hidden="1" spans="1:6">
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="B23" t="s">
         <v>7</v>
@@ -1821,7 +1992,7 @@
         <v>8</v>
       </c>
       <c r="D23" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="E23">
         <v>2</v>
@@ -1830,18 +2001,18 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="24" hidden="1" spans="1:6">
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="B24" t="s">
         <v>7</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D24" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="E24">
         <v>2</v>
@@ -1850,9 +2021,9 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="25" hidden="1" spans="1:6">
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="B25" t="s">
         <v>7</v>
@@ -1861,7 +2032,7 @@
         <v>11</v>
       </c>
       <c r="D25" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="E25">
         <v>10</v>
@@ -1872,7 +2043,7 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="B26" t="s">
         <v>7</v>
@@ -1881,27 +2052,27 @@
         <v>8</v>
       </c>
       <c r="D26" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="E26">
         <v>5</v>
       </c>
       <c r="F26">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="27" hidden="1" spans="1:6">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="B27" t="s">
         <v>7</v>
       </c>
       <c r="C27" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D27" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="E27">
         <v>10</v>
@@ -1910,18 +2081,18 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="28" hidden="1" spans="1:6">
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="B28" t="s">
         <v>7</v>
       </c>
       <c r="C28" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="D28" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="E28">
         <v>5</v>
@@ -1930,18 +2101,18 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="29" hidden="1" spans="1:6">
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="B29" t="s">
         <v>7</v>
       </c>
       <c r="C29" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D29" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="E29">
         <v>2</v>
@@ -1950,18 +2121,18 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="30" hidden="1" spans="1:6">
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="B30" t="s">
         <v>7</v>
       </c>
       <c r="C30" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D30" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="E30">
         <v>2</v>
@@ -1970,18 +2141,18 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="31" hidden="1" spans="1:6">
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="B31" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="C31" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D31" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="E31">
         <v>5</v>
@@ -1990,18 +2161,18 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="32" hidden="1" spans="1:6">
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="B32" t="s">
         <v>7</v>
       </c>
       <c r="C32" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D32" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="E32">
         <v>2</v>
@@ -2010,18 +2181,18 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="33" hidden="1" spans="1:6">
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>22</v>
+        <v>77</v>
       </c>
       <c r="B33" t="s">
         <v>7</v>
       </c>
       <c r="C33" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D33" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="E33">
         <v>5</v>
@@ -2030,9 +2201,9 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="34" hidden="1" spans="1:6">
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="B34" t="s">
         <v>7</v>
@@ -2041,7 +2212,7 @@
         <v>11</v>
       </c>
       <c r="D34" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="E34">
         <v>5</v>
@@ -2050,9 +2221,9 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="35" hidden="1" spans="1:6">
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>22</v>
+        <v>81</v>
       </c>
       <c r="B35" t="s">
         <v>7</v>
@@ -2061,7 +2232,7 @@
         <v>11</v>
       </c>
       <c r="D35" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="E35">
         <v>5</v>
@@ -2070,18 +2241,18 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="36" hidden="1" spans="1:6">
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>22</v>
+        <v>83</v>
       </c>
       <c r="B36" t="s">
         <v>7</v>
       </c>
       <c r="C36" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D36" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="E36">
         <v>2</v>
@@ -2090,9 +2261,9 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="37" hidden="1" spans="1:6">
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="B37" t="s">
         <v>7</v>
@@ -2101,7 +2272,7 @@
         <v>11</v>
       </c>
       <c r="D37" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="E37">
         <v>2</v>
@@ -2110,9 +2281,9 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="38" hidden="1" spans="1:6">
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>22</v>
+        <v>87</v>
       </c>
       <c r="B38" t="s">
         <v>7</v>
@@ -2121,7 +2292,7 @@
         <v>11</v>
       </c>
       <c r="D38" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="E38">
         <v>10</v>
@@ -2130,18 +2301,18 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="39" hidden="1" spans="1:6">
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="B39" t="s">
         <v>7</v>
       </c>
       <c r="C39" t="s">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="D39" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -2150,9 +2321,9 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="40" hidden="1" spans="1:6">
+    <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>22</v>
+        <v>92</v>
       </c>
       <c r="B40" t="s">
         <v>7</v>
@@ -2161,7 +2332,7 @@
         <v>11</v>
       </c>
       <c r="D40" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="E40">
         <v>2</v>
@@ -2170,18 +2341,18 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="41" hidden="1" spans="1:6">
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="B41" t="s">
         <v>7</v>
       </c>
       <c r="C41" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D41" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="E41">
         <v>5</v>
@@ -2190,9 +2361,9 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="42" hidden="1" spans="1:6">
+    <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>22</v>
+        <v>96</v>
       </c>
       <c r="B42" t="s">
         <v>7</v>
@@ -2201,7 +2372,7 @@
         <v>11</v>
       </c>
       <c r="D42" t="s">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="E42">
         <v>10</v>
@@ -2210,9 +2381,9 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="43" hidden="1" spans="1:6">
+    <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="B43" t="s">
         <v>7</v>
@@ -2221,7 +2392,7 @@
         <v>11</v>
       </c>
       <c r="D43" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="E43">
         <v>2</v>
@@ -2230,18 +2401,18 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="44" hidden="1" spans="1:6">
+    <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="B44" t="s">
         <v>7</v>
       </c>
       <c r="C44" t="s">
-        <v>70</v>
+        <v>101</v>
       </c>
       <c r="D44" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="E44">
         <v>10</v>
@@ -2250,9 +2421,9 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="45" hidden="1" spans="1:6">
+    <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="B45" t="s">
         <v>7</v>
@@ -2261,7 +2432,7 @@
         <v>11</v>
       </c>
       <c r="D45" t="s">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="E45">
         <v>10</v>
@@ -2270,9 +2441,9 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="46" hidden="1" spans="1:6">
+    <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>22</v>
+        <v>105</v>
       </c>
       <c r="B46" t="s">
         <v>7</v>
@@ -2281,7 +2452,7 @@
         <v>8</v>
       </c>
       <c r="D46" t="s">
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="E46">
         <v>5</v>
@@ -2290,18 +2461,18 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="47" hidden="1" spans="1:6">
+    <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>22</v>
+        <v>107</v>
       </c>
       <c r="B47" t="s">
         <v>7</v>
       </c>
       <c r="C47" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D47" t="s">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -2310,18 +2481,18 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="48" hidden="1" spans="1:6">
+    <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>22</v>
+        <v>109</v>
       </c>
       <c r="B48" t="s">
         <v>7</v>
       </c>
       <c r="C48" t="s">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="D48" t="s">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="E48">
         <v>10</v>
@@ -2330,18 +2501,18 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="49" hidden="1" spans="1:6">
+    <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>22</v>
+        <v>111</v>
       </c>
       <c r="B49" t="s">
         <v>7</v>
       </c>
       <c r="C49" t="s">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="D49" t="s">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="E49">
         <v>5</v>
@@ -2350,9 +2521,9 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="50" hidden="1" spans="1:6">
+    <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>22</v>
+        <v>113</v>
       </c>
       <c r="B50" t="s">
         <v>7</v>
@@ -2361,7 +2532,7 @@
         <v>11</v>
       </c>
       <c r="D50" t="s">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="E50">
         <v>10</v>
@@ -2370,9 +2541,9 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="51" hidden="1" spans="1:6">
+    <row r="51" spans="1:6">
       <c r="A51" t="s">
-        <v>22</v>
+        <v>115</v>
       </c>
       <c r="B51" t="s">
         <v>7</v>
@@ -2381,7 +2552,7 @@
         <v>11</v>
       </c>
       <c r="D51" t="s">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="E51">
         <v>5</v>
@@ -2390,18 +2561,18 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="52" hidden="1" spans="1:6">
+    <row r="52" spans="1:6">
       <c r="A52" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="B52" t="s">
         <v>7</v>
       </c>
       <c r="C52" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D52" t="s">
-        <v>79</v>
+        <v>117</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -2412,16 +2583,16 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53" t="s">
-        <v>80</v>
+        <v>118</v>
       </c>
       <c r="B53" t="s">
-        <v>81</v>
+        <v>119</v>
       </c>
       <c r="C53" t="s">
         <v>8</v>
       </c>
       <c r="D53" t="s">
-        <v>82</v>
+        <v>120</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -2430,18 +2601,18 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="54" hidden="1" spans="1:6">
+    <row r="54" spans="1:6">
       <c r="A54" t="s">
-        <v>83</v>
+        <v>121</v>
       </c>
       <c r="B54" t="s">
-        <v>84</v>
+        <v>122</v>
       </c>
       <c r="C54" t="s">
-        <v>85</v>
+        <v>123</v>
       </c>
       <c r="D54" t="s">
-        <v>86</v>
+        <v>124</v>
       </c>
       <c r="E54">
         <v>10</v>
@@ -2450,18 +2621,18 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="55" hidden="1" spans="1:6">
+    <row r="55" spans="1:6">
       <c r="A55" t="s">
-        <v>87</v>
+        <v>125</v>
       </c>
       <c r="B55" t="s">
-        <v>84</v>
+        <v>122</v>
       </c>
       <c r="C55" t="s">
-        <v>88</v>
+        <v>123</v>
       </c>
       <c r="D55" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -2470,18 +2641,18 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="56" hidden="1" spans="1:6">
+    <row r="56" spans="1:6">
       <c r="A56" t="s">
-        <v>87</v>
+        <v>127</v>
       </c>
       <c r="B56" t="s">
-        <v>84</v>
+        <v>128</v>
       </c>
       <c r="C56" t="s">
-        <v>88</v>
+        <v>53</v>
       </c>
       <c r="D56" t="s">
-        <v>90</v>
+        <v>129</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -2490,158 +2661,158 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="57" hidden="1" spans="1:6">
+    <row r="57" spans="1:6">
       <c r="A57" t="s">
-        <v>91</v>
+        <v>130</v>
       </c>
       <c r="B57" t="s">
-        <v>84</v>
+        <v>122</v>
       </c>
       <c r="C57" t="s">
-        <v>88</v>
+        <v>131</v>
       </c>
       <c r="D57" t="s">
-        <v>92</v>
+        <v>132</v>
       </c>
       <c r="E57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F57">
         <v>0.9</v>
       </c>
     </row>
-    <row r="58" hidden="1" spans="1:6">
+    <row r="58" spans="1:6">
       <c r="A58" t="s">
-        <v>87</v>
+        <v>133</v>
       </c>
       <c r="B58" t="s">
-        <v>84</v>
+        <v>122</v>
       </c>
       <c r="C58" t="s">
-        <v>88</v>
+        <v>131</v>
       </c>
       <c r="D58" t="s">
-        <v>93</v>
+        <v>134</v>
       </c>
       <c r="E58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F58">
         <v>0.9</v>
       </c>
     </row>
-    <row r="59" hidden="1" spans="1:6">
+    <row r="59" spans="1:6">
       <c r="A59" t="s">
-        <v>87</v>
+        <v>135</v>
       </c>
       <c r="B59" t="s">
-        <v>84</v>
+        <v>122</v>
       </c>
       <c r="C59" t="s">
-        <v>88</v>
+        <v>131</v>
       </c>
       <c r="D59" t="s">
-        <v>94</v>
+        <v>136</v>
       </c>
       <c r="E59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F59">
         <v>0.9</v>
       </c>
     </row>
-    <row r="60" hidden="1" spans="1:6">
+    <row r="60" spans="1:6">
       <c r="A60" t="s">
-        <v>87</v>
+        <v>137</v>
       </c>
       <c r="B60" t="s">
-        <v>84</v>
+        <v>122</v>
       </c>
       <c r="C60" t="s">
-        <v>88</v>
+        <v>131</v>
       </c>
       <c r="D60" t="s">
-        <v>95</v>
+        <v>138</v>
       </c>
       <c r="E60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F60">
         <v>0.9</v>
       </c>
     </row>
-    <row r="61" hidden="1" spans="1:6">
+    <row r="61" spans="1:6">
       <c r="A61" t="s">
-        <v>96</v>
+        <v>139</v>
       </c>
       <c r="B61" t="s">
-        <v>84</v>
+        <v>122</v>
       </c>
       <c r="C61" t="s">
-        <v>88</v>
+        <v>131</v>
       </c>
       <c r="D61" t="s">
-        <v>97</v>
+        <v>140</v>
       </c>
       <c r="E61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F61">
         <v>0.9</v>
       </c>
     </row>
-    <row r="62" hidden="1" spans="1:6">
+    <row r="62" spans="1:6">
       <c r="A62" t="s">
-        <v>87</v>
+        <v>141</v>
       </c>
       <c r="B62" t="s">
-        <v>84</v>
+        <v>122</v>
       </c>
       <c r="C62" t="s">
-        <v>88</v>
+        <v>131</v>
       </c>
       <c r="D62" t="s">
-        <v>98</v>
+        <v>142</v>
       </c>
       <c r="E62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F62">
         <v>0.9</v>
       </c>
     </row>
-    <row r="63" hidden="1" spans="1:6">
+    <row r="63" spans="1:6">
       <c r="A63" t="s">
-        <v>87</v>
+        <v>143</v>
       </c>
       <c r="B63" t="s">
-        <v>84</v>
+        <v>122</v>
       </c>
       <c r="C63" t="s">
-        <v>88</v>
+        <v>131</v>
       </c>
       <c r="D63" t="s">
-        <v>99</v>
+        <v>144</v>
       </c>
       <c r="E63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F63">
         <v>0.9</v>
       </c>
     </row>
-    <row r="64" hidden="1" spans="1:6">
+    <row r="64" spans="1:6">
       <c r="A64" t="s">
-        <v>100</v>
+        <v>145</v>
       </c>
       <c r="B64" t="s">
-        <v>101</v>
+        <v>146</v>
       </c>
       <c r="C64" t="s">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="D64" t="s">
-        <v>103</v>
+        <v>147</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -2650,18 +2821,18 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="65" hidden="1" spans="1:6">
+    <row r="65" spans="1:6">
       <c r="A65" t="s">
-        <v>104</v>
+        <v>148</v>
       </c>
       <c r="B65" t="s">
-        <v>84</v>
+        <v>122</v>
       </c>
       <c r="C65" t="s">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="D65" t="s">
-        <v>105</v>
+        <v>149</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -2670,18 +2841,18 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="66" hidden="1" spans="1:6">
+    <row r="66" spans="1:6">
       <c r="A66" t="s">
-        <v>106</v>
+        <v>150</v>
       </c>
       <c r="B66" t="s">
-        <v>107</v>
+        <v>151</v>
       </c>
       <c r="C66" t="s">
-        <v>106</v>
+        <v>150</v>
       </c>
       <c r="D66" t="s">
-        <v>108</v>
+        <v>152</v>
       </c>
       <c r="E66">
         <v>1</v>
@@ -2690,18 +2861,18 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="67" hidden="1" spans="1:6">
+    <row r="67" spans="1:6">
       <c r="A67" t="s">
-        <v>109</v>
+        <v>153</v>
       </c>
       <c r="B67" t="s">
-        <v>110</v>
+        <v>154</v>
       </c>
       <c r="C67" t="s">
-        <v>109</v>
+        <v>153</v>
       </c>
       <c r="D67" t="s">
-        <v>111</v>
+        <v>155</v>
       </c>
       <c r="E67">
         <v>10</v>
@@ -2710,17 +2881,87 @@
         <v>0.9</v>
       </c>
     </row>
+    <row r="68" spans="1:6">
+      <c r="A68" t="s">
+        <v>156</v>
+      </c>
+      <c r="B68" t="s">
+        <v>156</v>
+      </c>
+      <c r="C68" t="s">
+        <v>157</v>
+      </c>
+      <c r="D68" t="s">
+        <v>158</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="F68">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" t="s">
+        <v>159</v>
+      </c>
+      <c r="B69" t="s">
+        <v>160</v>
+      </c>
+      <c r="C69" t="s">
+        <v>25</v>
+      </c>
+      <c r="D69" t="s">
+        <v>161</v>
+      </c>
+      <c r="E69" t="s">
+        <v>162</v>
+      </c>
+      <c r="F69" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" t="s">
+        <v>164</v>
+      </c>
+      <c r="B70" t="s">
+        <v>165</v>
+      </c>
+      <c r="C70" t="s">
+        <v>25</v>
+      </c>
+      <c r="D70" t="s">
+        <v>166</v>
+      </c>
+      <c r="E70" t="s">
+        <v>162</v>
+      </c>
+      <c r="F70">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" t="s">
+        <v>167</v>
+      </c>
+      <c r="B71" t="s">
+        <v>168</v>
+      </c>
+      <c r="C71" t="s">
+        <v>8</v>
+      </c>
+      <c r="D71" t="s">
+        <v>169</v>
+      </c>
+      <c r="E71" t="s">
+        <v>170</v>
+      </c>
+      <c r="F71">
+        <v>0.9</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:F67" etc:filterBottomFollowUsedRange="0">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="icon\di-wen-chuan-tou.png"/>
-        <filter val="icon\wenyadanlianfa.png"/>
-        <filter val="icon\wen-ya-chong-ji.png"/>
-      </filters>
-    </filterColumn>
-    <extLst/>
-  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/config.xlsx
+++ b/config.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G95"/>
+  <dimension ref="A1:G109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1239,7 +1239,7 @@
         <v>5</v>
       </c>
       <c r="F26" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="G26" t="n">
         <v>4</v>
@@ -2224,7 +2224,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>icon\1\yue-qian-dain-zi.png</t>
+          <t>icon\1\2-2queding.png</t>
         </is>
       </c>
       <c r="E58" t="n">
@@ -2255,7 +2255,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>icon\1\huo-yan-zi-dan.png</t>
+          <t>icon\1\dianjikongbai.png</t>
         </is>
       </c>
       <c r="E59" t="n">
@@ -2286,7 +2286,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>icon\1\meng-lie-zhen-dang.png</t>
+          <t>icon\1\fan-hui-ye-mian.png</t>
         </is>
       </c>
       <c r="E60" t="n">
@@ -2317,7 +2317,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>icon\1\lie-yan-wu-ren-ji.png</t>
+          <t>icon\1\kai-shi-you-xi.png</t>
         </is>
       </c>
       <c r="E61" t="n">
@@ -2348,7 +2348,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>icon\1\wen-ya-bao-zha.png</t>
+          <t>icon\1\ru-chang-ci-tiao.png</t>
         </is>
       </c>
       <c r="E62" t="n">
@@ -2379,7 +2379,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>icon\1\zhi-dao-ji-guang.png</t>
+          <t>icon\1\shuaxin.png</t>
         </is>
       </c>
       <c r="E63" t="n">
@@ -2410,7 +2410,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>icon\1\bing-zi-dan-si-feng-lie.png</t>
+          <t>icon\1\tiaozhan.png</t>
         </is>
       </c>
       <c r="E64" t="n">
@@ -3192,7 +3192,7 @@
         <v>1</v>
       </c>
       <c r="F89" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="G89" t="n">
         <v>3</v>
@@ -3381,6 +3381,468 @@
         <v>0.9</v>
       </c>
       <c r="G95" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>重装机型</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>无人机大小增加60%</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>无人机</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>icon\4\zhong-zhuang-ji-xing.png</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F96" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G96" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>冰暴增伤</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>默认技能描述</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>冰暴</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>icon\3\bing-bao-zeng-shang.png</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F97" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G97" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>热能引燃</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>默认技能描述</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>温压弹</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>icon\3\re-neng-yin-ran.png</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F98" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G98" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>致残碾压</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>默认技能描述</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>车</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>icon\3\zhi-can-nian-ya.png</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F99" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G99" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>散射小冰弹</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>默认技能描述</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>干冰弹</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>icon\3\san-she-xiao-bing-dan.png</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F100" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G100" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>伤害增幅</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>默认技能描述</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>枪</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>icon\3\shang-hai-zeng-fu.png</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F101" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G101" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>电磁子弹</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>默认技能描述</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>枪</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>icon\3\daincizidan.png</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F102" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G102" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>分裂子弹</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>默认技能描述</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>枪</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>icon\3\fenliezidan.png</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F103" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G103" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>爆炸增伤</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>默认技能描述</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>枪</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>icon\3\baozhazengshang.png</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F104" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G104" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>全子弹增幅</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>默认技能描述</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>枪</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>icon\3\quanzidanzengshang.png</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F105" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G105" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>温压弹连发</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>默认技能描述</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>温压弹</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>icon\3\wenyadanlianfa.png</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F106" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G106" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>干冰弹齐射</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>默认技能描述</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>干冰弹</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>icon\3\ganbingdanlianshe.png</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F107" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G107" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>连环冰暴</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>默认技能描述</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>冰暴</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>icon\3\lianhuanbingbao.png</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F108" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G108" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>子弹穿透</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>默认技能描述</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>枪</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>icon\3\zidanchuantou.png</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F109" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G109" t="n">
         <v>3</v>
       </c>
     </row>
